--- a/arômes hydromel 2.xlsx
+++ b/arômes hydromel 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PROJECTS\ONGOING\Astyanax\HYDROMELLERIE\arome-hydromel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19050CB5-352F-4154-A2C9-1C7ECB9F99A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F557F3-4997-41AD-B22A-55650A353604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1574ACEB-8B8E-4962-AF04-679BC709BC8E}"/>
   </bookViews>
@@ -3220,7 +3220,7 @@
   <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
